--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3260.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3260.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.37559833293648</v>
+        <v>3.548388957977295</v>
       </c>
       <c r="B1">
-        <v>1.572917501507667</v>
+        <v>2.472123384475708</v>
       </c>
       <c r="C1">
-        <v>1.968258647607517</v>
+        <v>1.894278526306152</v>
       </c>
       <c r="D1">
-        <v>3.997103408146204</v>
+        <v>1.703905701637268</v>
       </c>
       <c r="E1">
-        <v>4.286047180017951</v>
+        <v>1.530171751976013</v>
       </c>
     </row>
   </sheetData>
